--- a/invoice_20230502.xlsx
+++ b/invoice_20230502.xlsx
@@ -417,7 +417,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P6"/>
+  <dimension ref="A1:P3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -589,95 +589,65 @@
       </c>
     </row>
     <row r="3">
+      <c r="A3" t="n">
+        <v>2234567</v>
+      </c>
+      <c r="B3" t="n">
+        <v>674567890</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>B2BVASHSIMPLE</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>01.04.2023 00:00:00</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>30.04.2023 23:59:59</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
+        <v>52.22</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>залишок</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>130.72</v>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>залишок</t>
+        </is>
+      </c>
+      <c r="J3" t="n">
+        <v>200</v>
+      </c>
+      <c r="K3" t="n">
+        <v>100</v>
+      </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Послуги SMS та MMS (вихідні текстові та мультимедійні повідомлення )</t>
+          <t>Замовлено та надано послуг рухомого (мобільного) зв'язку за період</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>2.35</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>Щомісячна абонентна плата</t>
-        </is>
-      </c>
-      <c r="M4" t="n">
-        <v>76.23999999999999</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>2234567</v>
-      </c>
-      <c r="B5" t="n">
-        <v>674567890</v>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>B2BVASHSIMPLE</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>01.04.2023 00:00:00</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>30.04.2023 23:59:59</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>52.22</v>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>залишок</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>130.72</v>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>залишок</t>
-        </is>
-      </c>
-      <c r="J5" t="n">
-        <v>200</v>
-      </c>
-      <c r="K5" t="n">
-        <v>100</v>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>Замовлено та надано послуг рухомого (мобільного) зв'язку за період</t>
-        </is>
-      </c>
-      <c r="M5" t="n">
         <v>95.29000000000001</v>
       </c>
-      <c r="N5" t="n">
+      <c r="N3" t="n">
         <v>19.06</v>
       </c>
-      <c r="O5" t="n">
+      <c r="O3" t="n">
         <v>7.15</v>
       </c>
-      <c r="P5" t="n">
+      <c r="P3" t="n">
         <v>121.5</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>Щомісячна абонентна плата</t>
-        </is>
-      </c>
-      <c r="M6" t="n">
-        <v>95.29000000000001</v>
       </c>
     </row>
   </sheetData>

--- a/invoice_20230502.xlsx
+++ b/invoice_20230502.xlsx
@@ -417,7 +417,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P3"/>
+  <dimension ref="A1:P6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -589,65 +589,95 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="n">
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>Послуги SMS та MMS (вихідні текстові та мультимедійні повідомлення )</t>
+        </is>
+      </c>
+      <c r="M3" t="n">
+        <v>2.35</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>Щомісячна абонентна плата</t>
+        </is>
+      </c>
+      <c r="M4" t="n">
+        <v>76.23999999999999</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
         <v>2234567</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B5" t="n">
         <v>674567890</v>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>B2BVASHSIMPLE</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>01.04.2023 00:00:00</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>30.04.2023 23:59:59</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="F5" t="n">
         <v>52.22</v>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>залишок</t>
         </is>
       </c>
-      <c r="H3" t="n">
+      <c r="H5" t="n">
         <v>130.72</v>
       </c>
-      <c r="I3" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>залишок</t>
         </is>
       </c>
-      <c r="J3" t="n">
+      <c r="J5" t="n">
         <v>200</v>
       </c>
-      <c r="K3" t="n">
+      <c r="K5" t="n">
         <v>100</v>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>Замовлено та надано послуг рухомого (мобільного) зв'язку за період</t>
         </is>
       </c>
-      <c r="M3" t="n">
+      <c r="M5" t="n">
         <v>95.29000000000001</v>
       </c>
-      <c r="N3" t="n">
+      <c r="N5" t="n">
         <v>19.06</v>
       </c>
-      <c r="O3" t="n">
+      <c r="O5" t="n">
         <v>7.15</v>
       </c>
-      <c r="P3" t="n">
+      <c r="P5" t="n">
         <v>121.5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>Щомісячна абонентна плата</t>
+        </is>
+      </c>
+      <c r="M6" t="n">
+        <v>95.29000000000001</v>
       </c>
     </row>
   </sheetData>
